--- a/templates/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/Transcriptomics_GEO/03_SWATEtemplate_v1.0.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED32EBB-DB4B-E344-ABB1-2E21BBEE3302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFDF554-3748-7F4B-8A13-952691CA2963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15520" yWindow="-21100" windowWidth="18160" windowHeight="12160" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="2" r:id="rId1"/>
@@ -1210,8 +1210,8 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
-  <SwateTable Table="annotationTable" Worksheet="01_SPL01_plants_v1">
-    <TableValidation DateTime="2021-03-03 15:28" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="01_SPL01_plants_v1">
+  <SwateTable Table="annotationTable" Worksheet="1SPL01_plants">
+    <TableValidation DateTime="2021-03-03 16:28" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="1SPL01_plants">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Characteristics [Organism]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Organism"/>
@@ -1234,79 +1234,11 @@
       <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
-  <Validation SwateVersion="0.3.1">
-    <TableValidation DateTime="2021-02-18 14:33" SwateVersion="0.3.1" TableName="annotationTable2" Userlist="" WorksheetName="03_ASY01_RNASeqGEO_v1">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Library strategy]" Importance="90" Unit="None" ValidationFormat="OntologyTerm Library strategy"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Library Selection]" Importance="90" Unit="None" ValidationFormat="OntologyTerm Library Selection"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Library layout]" Importance="90" Unit="None" ValidationFormat="OntologyTerm Library layout"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Library preparation kit version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Library preparation kit]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Adapter sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Adapt]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [Library RNA amount]" Importance="90" Unit="microgram" ValidationFormat="UnitTerm microgram"/>
-      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [Next generation sequencing instrument model]" Importance="80" Unit="None" ValidationFormat="OntologyTerm Next generation sequencing instrument model"/>
-      <ColumnValidation ColumnAdress="32" ColumnHeader="Parameter [Base-calling Software]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="35" ColumnHeader="Parameter [Base-calling Software Version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="38" ColumnHeader="Parameter [Base-calling Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="41" ColumnHeader="Parameter [Library strand]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="44" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="45" ColumnHeader="Parameter [Raw data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="48" ColumnHeader="Parameter [Raw data file checksum]" Importance="None" Unit="None" ValidationFormat="None"/>
-    </TableValidation>
-    <TableValidation DateTime="2021-02-18 20:28" SwateVersion="0.3.1" TableName="annotationTable1" Userlist="" WorksheetName="02_EXT01_RNA_v1">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Sample Collection Method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Metabolism quenching method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Sample storage]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Bio entity]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Biosource amount]" Importance="80" Unit="milligram" ValidationFormat="UnitTerm milligram"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Characteristics [Extraction Kit]" Importance="None" Unit="None" ValidationFormat="None"/>
-    </TableValidation>
-    <TableValidation DateTime="2021-02-18 21:26" SwateVersion="0.3.1" TableName="annotationTable" Userlist="" WorksheetName="01_SPL01_plants_v1">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Characteristics [Organism]" Importance="90" Unit="None" ValidationFormat="OntologyTerm Organism"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Characteristics [Genotype]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Characteristics [Organism part]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Characteristics [age]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Characteristics [study type]" Importance="80" Unit="None" ValidationFormat="OntologyTerm study type"/>
-      <ColumnValidation ColumnAdress="17" ColumnHeader="Characteristics [plant growth medium exposure]" Importance="50" Unit="None" ValidationFormat="OntologyTerm plant growth medium exposure"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Characteristics [growth plot design]" Importance="50" Unit="None" ValidationFormat="OntologyTerm growth plot design"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Characteristics [Growth day length]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="26" ColumnHeader="Characteristics [light intensity exposure]" Importance="90" Unit="microeinstein per square meter per second" ValidationFormat="UnitTerm microeinstein per square meter per second"/>
-      <ColumnValidation ColumnAdress="32" ColumnHeader="Characteristics [Humidity Day]" Importance="90" Unit="percent" ValidationFormat="UnitTerm percent"/>
-      <ColumnValidation ColumnAdress="38" ColumnHeader="Characteristics [Humidity Night]" Importance="90" Unit="percent" ValidationFormat="UnitTerm percent"/>
-      <ColumnValidation ColumnAdress="44" ColumnHeader="Characteristics [Temperature Day]" Importance="100" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="50" ColumnHeader="Characteristics [Temperature Night]" Importance="100" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="56" ColumnHeader="Characteristics [watering exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="59" ColumnHeader="Characteristics [plant nutrient exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="62" ColumnHeader="Characteristics [abiotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="65" ColumnHeader="Characteristics [biotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
-    </TableValidation>
-    <TableValidation DateTime="2021-02-18 13:03" SwateVersion="0.3.1" TableName="annotationTable3" Userlist="" WorksheetName="04_COM01_RNASeqGEO_v1">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Data filtering software]" Importance="None" Unit="None" ValidationFormat="Url"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Data filtering software version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Data filtering Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Read Alignment Software]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Read Alignment Software Version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Read Alignment Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Genome reference sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [Processed data file name]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="26" ColumnHeader="Parameter [Processed data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [Processed data file checksum]" Importance="None" Unit="None" ValidationFormat="None"/>
-    </TableValidation>
-  </Validation>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C68F0C2-8BC7-AA4D-A493-8B3D1A8E0698}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDEA89B8-30FE-EC47-941A-CB888A55711B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\1SPL01_plants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DAC0D6-0303-46B7-B9E1-BAD4CB496697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EF0BAF-65B1-46B6-A826-19E531F88CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
@@ -46,11 +46,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A6730C41-F5DE-4F01-A3FC-095AF4373E4D}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=f12e98ee-a4e7-4ada-ba56-1e13cce1a44b</t>
       </text>
     </comment>
@@ -1237,7 +1237,7 @@
     <t>http://purl.obolibrary.org/obo/UO_0000027</t>
   </si>
   <si>
-    <t>1.1.9</t>
+    <t>1.1.10</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1447,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{D09CA6D9-E6C7-4433-8F48-8CA6F5BF0770}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="53">
     <dxf>
@@ -1762,7 +1762,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2102,9 +2102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:DN7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -3371,9 +3371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -3641,7 +3641,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -5156,7 +5156,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -6703,7 +6703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -8122,7 +8122,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>

--- a/templates/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/03_DataPLANT_github/SWATE_templates/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF622A41-14C2-427F-97AF-3F5E6D052462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE78103-3C6E-1742-8A3E-115735EF6AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="360" yWindow="-20260" windowWidth="25500" windowHeight="16120" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="454">
   <si>
     <t>Source Name</t>
   </si>
@@ -1425,6 +1425,12 @@
   </si>
   <si>
     <t>https://www.ebi.ac.uk/ena/browser/view/ERC000037 https://www.ebi.ac.uk/ena/browser/view/ERC000020</t>
+  </si>
+  <si>
+    <t>[Comment] ER checklist source</t>
+  </si>
+  <si>
+    <t>[Comment] Author ORCID</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1605,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1645,6 +1651,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2439,7 +2448,7 @@
       <selection activeCell="DX1" sqref="DX1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
@@ -2457,22 +2466,22 @@
     <col min="14" max="14" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.88671875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="37.83203125" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="30.33203125" bestFit="1" customWidth="1"/>
@@ -2481,43 +2490,43 @@
     <col min="38" max="38" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="30.5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="36" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="28.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.109375" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="37.109375" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.1640625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="37.1640625" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="39.5546875" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="47.5546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="39.5546875" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="32.5" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="39.5" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="32.5" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="39.5" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="61" max="61" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="64" max="64" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.109375" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="39.5546875" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.1640625" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="32.5" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="39.5" hidden="1" customWidth="1"/>
     <col min="69" max="69" width="31" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="72" max="72" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="32.5" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="11" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="76" max="76" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="34.5" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="11" hidden="1" customWidth="1"/>
     <col min="79" max="79" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="80" max="80" width="43.6640625" hidden="1" customWidth="1"/>
@@ -2526,30 +2535,30 @@
     <col min="83" max="83" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="84" max="84" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="85" max="85" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="39.5546875" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="39.5546875" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="32.5" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="39.5" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="32.5" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="39.5" hidden="1" customWidth="1"/>
     <col min="91" max="91" width="39" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="39.5546875" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="32.5" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="39.5" hidden="1" customWidth="1"/>
     <col min="94" max="94" width="38" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="39.5546875" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="32.5" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="39.5" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="99" max="99" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="39.83203125" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="102" max="102" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="103" max="103" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="105" max="105" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="28.5" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="108" max="108" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="111" max="111" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="43.6640625" bestFit="1" customWidth="1"/>
@@ -2558,40 +2567,40 @@
     <col min="115" max="115" width="29" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="117" max="117" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="38.109375" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="120" max="120" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="45.1640625" hidden="1" customWidth="1"/>
     <col min="122" max="122" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="38.109375" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="123" max="123" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="45.1640625" hidden="1" customWidth="1"/>
     <col min="125" max="125" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="31.5546875" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="38.5546875" hidden="1" customWidth="1"/>
+    <col min="126" max="126" width="31.5" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="38.5" hidden="1" customWidth="1"/>
     <col min="128" max="128" width="27" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="38.109375" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="129" max="129" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="45.1640625" hidden="1" customWidth="1"/>
     <col min="131" max="131" width="33" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="38.109375" hidden="1" customWidth="1"/>
-    <col min="133" max="133" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="132" max="132" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="45.1640625" hidden="1" customWidth="1"/>
     <col min="134" max="134" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="38.109375" hidden="1" customWidth="1"/>
-    <col min="136" max="136" width="45.109375" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="38.109375" hidden="1" customWidth="1"/>
-    <col min="139" max="139" width="45.109375" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="38.109375" hidden="1" customWidth="1"/>
-    <col min="142" max="142" width="45.109375" hidden="1" customWidth="1"/>
-    <col min="143" max="143" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="136" max="136" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="139" max="139" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="140" max="140" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="142" max="142" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="143" max="143" width="24.5" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="35.33203125" hidden="1" customWidth="1"/>
     <col min="145" max="145" width="42.33203125" hidden="1" customWidth="1"/>
     <col min="146" max="146" width="40" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="38.109375" hidden="1" customWidth="1"/>
-    <col min="148" max="148" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="147" max="147" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="148" max="148" width="45.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>148</v>
       </c>
@@ -3251,7 +3260,7 @@
       <c r="EQ2" s="3"/>
       <c r="ER2" s="3"/>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>173</v>
       </c>
@@ -3444,7 +3453,7 @@
       <c r="EQ3" s="3"/>
       <c r="ER3" s="3"/>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>184</v>
       </c>
@@ -3613,7 +3622,7 @@
       <c r="EQ4" s="3"/>
       <c r="ER4" s="3"/>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>193</v>
       </c>
@@ -3746,7 +3755,7 @@
       <c r="EQ5" s="3"/>
       <c r="ER5" s="3"/>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>195</v>
       </c>
@@ -3870,7 +3879,7 @@
       <c r="EQ6" s="3"/>
       <c r="ER6" s="3"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>196</v>
       </c>
@@ -4004,22 +4013,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>197</v>
       </c>
@@ -4027,7 +4037,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>199</v>
       </c>
@@ -4035,7 +4045,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>201</v>
       </c>
@@ -4043,7 +4053,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>202</v>
       </c>
@@ -4051,19 +4061,19 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>206</v>
       </c>
@@ -4071,13 +4081,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>209</v>
       </c>
@@ -4097,7 +4107,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>215</v>
       </c>
@@ -4107,7 +4117,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>216</v>
       </c>
@@ -4117,187 +4127,206 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="10"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="18" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="10"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="B27" s="10"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="F28" s="9"/>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" display="https://www.ebi.ac.uk/ena/browser/view/ERC000037" xr:uid="{8661B25F-28B7-4001-B986-A010D408E879}"/>
+    <hyperlink ref="F16" r:id="rId1" display="https://www.ebi.ac.uk/ena/browser/view/ERC000037" xr:uid="{8661B25F-28B7-4001-B986-A010D408E879}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4311,23 +4340,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>246</v>
       </c>
@@ -4365,7 +4394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -4401,7 +4430,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>117</v>
       </c>
@@ -4437,7 +4466,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -4475,7 +4504,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -4513,7 +4542,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -4549,7 +4578,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -4587,7 +4616,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -4625,7 +4654,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -4663,7 +4692,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -4701,7 +4730,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -4739,7 +4768,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -4777,7 +4806,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -4815,7 +4844,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -4853,7 +4882,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>294</v>
       </c>
@@ -4891,7 +4920,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -4929,7 +4958,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -4967,7 +4996,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -5005,7 +5034,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -5043,7 +5072,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -5081,7 +5110,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>52</v>
       </c>
@@ -5117,7 +5146,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -5153,7 +5182,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -5189,7 +5218,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -5225,7 +5254,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>64</v>
       </c>
@@ -5261,7 +5290,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
@@ -5297,7 +5326,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>72</v>
       </c>
@@ -5333,7 +5362,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>76</v>
       </c>
@@ -5369,7 +5398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>80</v>
       </c>
@@ -5405,7 +5434,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>84</v>
       </c>
@@ -5441,7 +5470,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>87</v>
       </c>
@@ -5477,7 +5506,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>90</v>
       </c>
@@ -5513,7 +5542,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>93</v>
       </c>
@@ -5549,7 +5578,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>96</v>
       </c>
@@ -5587,7 +5616,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>99</v>
       </c>
@@ -5625,7 +5654,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>102</v>
       </c>
@@ -5663,7 +5692,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>105</v>
       </c>
@@ -5701,7 +5730,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>108</v>
       </c>
@@ -5739,7 +5768,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>111</v>
       </c>
@@ -5777,7 +5806,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>114</v>
       </c>
@@ -5824,25 +5853,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>246</v>
       </c>
@@ -5880,7 +5909,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -5918,7 +5947,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>117</v>
       </c>
@@ -5956,7 +5985,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -5994,7 +6023,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -6032,7 +6061,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -6070,7 +6099,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -6108,7 +6137,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -6146,7 +6175,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -6184,7 +6213,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -6222,7 +6251,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -6260,7 +6289,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -6298,7 +6327,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -6336,7 +6365,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -6374,7 +6403,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>294</v>
       </c>
@@ -6412,7 +6441,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -6450,7 +6479,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -6488,7 +6517,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -6526,7 +6555,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -6564,7 +6593,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -6602,7 +6631,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>52</v>
       </c>
@@ -6640,7 +6669,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -6678,7 +6707,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -6716,7 +6745,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -6754,7 +6783,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>64</v>
       </c>
@@ -6792,7 +6821,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
@@ -6830,7 +6859,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>72</v>
       </c>
@@ -6868,7 +6897,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>76</v>
       </c>
@@ -6906,7 +6935,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>80</v>
       </c>
@@ -6944,7 +6973,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>84</v>
       </c>
@@ -6982,7 +7011,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>87</v>
       </c>
@@ -7020,7 +7049,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>90</v>
       </c>
@@ -7058,7 +7087,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>93</v>
       </c>
@@ -7096,7 +7125,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>96</v>
       </c>
@@ -7134,7 +7163,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>99</v>
       </c>
@@ -7172,7 +7201,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>102</v>
       </c>
@@ -7210,7 +7239,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>105</v>
       </c>
@@ -7248,7 +7277,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>108</v>
       </c>
@@ -7286,7 +7315,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>111</v>
       </c>
@@ -7324,7 +7353,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>114</v>
       </c>
@@ -7373,23 +7402,23 @@
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>246</v>
       </c>
@@ -7427,7 +7456,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7463,7 +7492,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>117</v>
       </c>
@@ -7499,7 +7528,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -7535,7 +7564,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -7567,7 +7596,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -7603,7 +7632,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -7639,7 +7668,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -7675,7 +7704,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -7711,7 +7740,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -7747,7 +7776,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -7783,7 +7812,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -7819,7 +7848,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -7855,7 +7884,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -7891,7 +7920,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>294</v>
       </c>
@@ -7927,7 +7956,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -7963,7 +7992,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -7999,7 +8028,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -8035,7 +8064,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -8071,7 +8100,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -8107,7 +8136,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>52</v>
       </c>
@@ -8141,7 +8170,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -8175,7 +8204,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -8209,7 +8238,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -8243,7 +8272,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>64</v>
       </c>
@@ -8277,7 +8306,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
@@ -8311,7 +8340,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>72</v>
       </c>
@@ -8345,7 +8374,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>76</v>
       </c>
@@ -8381,7 +8410,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>80</v>
       </c>
@@ -8417,7 +8446,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>84</v>
       </c>
@@ -8451,7 +8480,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>87</v>
       </c>
@@ -8485,7 +8514,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>90</v>
       </c>
@@ -8519,7 +8548,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>93</v>
       </c>
@@ -8553,7 +8582,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>96</v>
       </c>
@@ -8589,7 +8618,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>99</v>
       </c>
@@ -8625,7 +8654,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>102</v>
       </c>
@@ -8661,7 +8690,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>105</v>
       </c>
@@ -8691,7 +8720,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>108</v>
       </c>
@@ -8721,7 +8750,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>111</v>
       </c>
@@ -8751,7 +8780,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>114</v>
       </c>
@@ -8794,23 +8823,23 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>246</v>
       </c>
@@ -8848,7 +8877,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8876,7 +8905,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>117</v>
       </c>
@@ -8904,7 +8933,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -8932,7 +8961,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -8960,7 +8989,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -8996,7 +9025,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -9024,7 +9053,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -9052,7 +9081,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -9080,7 +9109,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -9108,7 +9137,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -9136,7 +9165,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -9172,7 +9201,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -9200,7 +9229,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -9236,7 +9265,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>294</v>
       </c>
@@ -9264,7 +9293,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -9292,7 +9321,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -9328,7 +9357,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -9356,7 +9385,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -9384,7 +9413,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -9412,7 +9441,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>52</v>
       </c>
@@ -9440,7 +9469,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -9468,7 +9497,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -9496,7 +9525,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -9524,7 +9553,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>64</v>
       </c>
@@ -9552,7 +9581,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
@@ -9580,7 +9609,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>72</v>
       </c>
@@ -9608,7 +9637,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>76</v>
       </c>
@@ -9636,7 +9665,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>80</v>
       </c>
@@ -9664,7 +9693,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>84</v>
       </c>
@@ -9692,7 +9721,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>87</v>
       </c>
@@ -9720,7 +9749,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>90</v>
       </c>
@@ -9748,7 +9777,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>93</v>
       </c>
@@ -9776,7 +9805,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>96</v>
       </c>
@@ -9804,7 +9833,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>99</v>
       </c>
@@ -9832,7 +9861,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>102</v>
       </c>
@@ -9860,7 +9889,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>105</v>
       </c>
@@ -9888,7 +9917,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>108</v>
       </c>
@@ -9916,7 +9945,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>111</v>
       </c>
@@ -9944,7 +9973,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>114</v>
       </c>
@@ -9985,17 +10014,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>246</v>
       </c>
@@ -10033,7 +10062,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -10061,7 +10090,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>117</v>
       </c>
@@ -10089,7 +10118,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -10117,7 +10146,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -10145,7 +10174,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -10177,7 +10206,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -10209,7 +10238,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -10237,7 +10266,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -10265,7 +10294,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -10293,7 +10322,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -10321,7 +10350,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -10353,7 +10382,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -10381,7 +10410,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -10413,7 +10442,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>294</v>
       </c>
@@ -10441,7 +10470,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -10469,7 +10498,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -10503,7 +10532,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -10531,7 +10560,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -10559,7 +10588,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -10587,7 +10616,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>52</v>
       </c>
@@ -10615,7 +10644,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -10643,7 +10672,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -10671,7 +10700,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -10699,7 +10728,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>64</v>
       </c>
@@ -10727,7 +10756,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
@@ -10755,7 +10784,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>72</v>
       </c>
@@ -10783,7 +10812,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>76</v>
       </c>
@@ -10811,7 +10840,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>80</v>
       </c>
@@ -10839,7 +10868,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>84</v>
       </c>
@@ -10867,7 +10896,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>87</v>
       </c>
@@ -10895,7 +10924,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>90</v>
       </c>
@@ -10923,7 +10952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>93</v>
       </c>
@@ -10951,7 +10980,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>96</v>
       </c>
@@ -10983,7 +11012,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>99</v>
       </c>
@@ -11015,7 +11044,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>102</v>
       </c>
@@ -11043,7 +11072,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>105</v>
       </c>
@@ -11071,7 +11100,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>108</v>
       </c>
@@ -11099,7 +11128,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>111</v>
       </c>
@@ -11127,7 +11156,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>114</v>
       </c>
@@ -11155,7 +11184,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>118</v>
       </c>
@@ -11187,7 +11216,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>121</v>
       </c>
@@ -11219,7 +11248,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>428</v>
       </c>
@@ -11249,7 +11278,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>127</v>
       </c>
@@ -11281,7 +11310,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>130</v>
       </c>
@@ -11313,7 +11342,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>133</v>
       </c>
@@ -11345,7 +11374,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>439</v>
       </c>
@@ -11377,7 +11406,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>442</v>
       </c>
@@ -11409,7 +11438,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>445</v>
       </c>
@@ -11441,7 +11470,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>139</v>
       </c>

--- a/templates/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/03_DataPLANT_github/SWATE_templates/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE78103-3C6E-1742-8A3E-115735EF6AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C02E302-6488-F64B-A160-D640869115F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-20260" windowWidth="25500" windowHeight="16120" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-1120" yWindow="-21100" windowWidth="25560" windowHeight="20280" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="459">
   <si>
     <t>Source Name</t>
   </si>
@@ -1431,6 +1431,21 @@
   </si>
   <si>
     <t>[Comment] Author ORCID</t>
+  </si>
+  <si>
+    <t>brilhaus@hhu.de</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-9021-3197</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:1000096</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:1000097</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:1000098</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1620,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1654,6 +1669,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2401,7 +2419,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="629" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="662" row="2">
@@ -4015,18 +4033,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4107,27 +4123,39 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>458</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>452</v>
       </c>
@@ -4135,16 +4163,17 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="19" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>217</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>218</v>
       </c>
@@ -4174,7 +4203,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>224</v>
       </c>
@@ -4182,16 +4211,13 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="18" t="s">
-        <v>451</v>
-      </c>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -4206,9 +4232,10 @@
       <c r="D18" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>230</v>
       </c>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -4223,9 +4250,10 @@
       <c r="D19" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>235</v>
       </c>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -4234,16 +4262,20 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -4252,6 +4284,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4261,6 +4294,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4270,6 +4304,7 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4279,23 +4314,26 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
@@ -4304,6 +4342,7 @@
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4313,6 +4352,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4322,15 +4362,18 @@
       <c r="B30" s="12"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" display="https://www.ebi.ac.uk/ena/browser/view/ERC000037" xr:uid="{8661B25F-28B7-4001-B986-A010D408E879}"/>
+    <hyperlink ref="F12" r:id="rId1" display="https://www.ebi.ac.uk/ena/browser/view/ERC000037" xr:uid="{8661B25F-28B7-4001-B986-A010D408E879}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{A67F4947-4B01-9F4B-9C34-7473909B7C41}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{A94F3EDE-BACC-8E44-BD8B-3C31B67A40AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/templates/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/03_DataPLANT_github/SWATE_templates/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6733E2F5-2F45-4BE8-8241-F648CC10EC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE003A-CFA8-0E41-94DA-2B9514349C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="1380" yWindow="-20220" windowWidth="27840" windowHeight="15840" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,21 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A6730C41-F5DE-4F01-A3FC-095AF4373E4D}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     The unique identifier of this template. It will be auto generated.
 Antwort:
     id=f12e98ee-a4e7-4ada-ba56-1e13cce1a44b</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -51,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="463">
   <si>
     <t>Source Name</t>
   </si>
@@ -1437,6 +1446,18 @@
   </si>
   <si>
     <t>1.1.13</t>
+  </si>
+  <si>
+    <t>Template source</t>
+  </si>
+  <si>
+    <t>DataPLANT-curated</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0010000</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0010002</t>
   </si>
 </sst>
 </file>
@@ -1667,9 +1688,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{D09CA6D9-E6C7-4433-8F48-8CA6F5BF0770}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="83">
     <dxf>
@@ -2103,7 +2124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2455,161 +2476,161 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="37.83203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="30" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="28" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.140625" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="37.140625" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.1640625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="37.1640625" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="24" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="43.85546875" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="32.5" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="43.83203125" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="43" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="43.85546875" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="32.5" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="43.83203125" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="36" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="39.83203125" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="32.5" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="11" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="14" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="35.5" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="108" max="108" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="32.5" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="39.5" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="32.5" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="39.5" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="32.5" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="39.5" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="32.5" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="39.5" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="43" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="114" max="114" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="117" max="117" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="30.28515625" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="133" max="133" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="136" max="136" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="139" max="139" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="142" max="142" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="114" max="114" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="117" max="117" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="30.33203125" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="134" max="134" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="136" max="136" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="139" max="139" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="140" max="140" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="142" max="142" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="143" max="143" width="24" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="34" hidden="1" customWidth="1"/>
     <col min="145" max="145" width="41" hidden="1" customWidth="1"/>
-    <col min="146" max="146" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="148" max="148" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="149" max="149" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="148" max="148" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="149" max="149" width="39.5" bestFit="1" customWidth="1"/>
     <col min="150" max="151" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3055,7 +3076,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>130</v>
       </c>
@@ -3269,7 +3290,7 @@
       <c r="EQ2" s="3"/>
       <c r="ER2" s="3"/>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>155</v>
       </c>
@@ -3462,7 +3483,7 @@
       <c r="EQ3" s="3"/>
       <c r="ER3" s="3"/>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>166</v>
       </c>
@@ -3631,7 +3652,7 @@
       <c r="EQ4" s="3"/>
       <c r="ER4" s="3"/>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>175</v>
       </c>
@@ -3764,7 +3785,7 @@
       <c r="EQ5" s="3"/>
       <c r="ER5" s="3"/>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>177</v>
       </c>
@@ -3888,7 +3909,7 @@
       <c r="EQ6" s="3"/>
       <c r="ER6" s="3"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>178</v>
       </c>
@@ -4022,21 +4043,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>179</v>
       </c>
@@ -4044,7 +4065,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>181</v>
       </c>
@@ -4052,7 +4073,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>183</v>
       </c>
@@ -4060,7 +4081,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -4068,19 +4089,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>188</v>
       </c>
@@ -4088,115 +4109,121 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="E11" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4204,83 +4231,83 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="18" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4288,9 +4315,9 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4298,9 +4325,9 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4308,59 +4335,69 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="20" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="12"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" display="https://www.ebi.ac.uk/ena/browser/view/ERC000037" xr:uid="{8661B25F-28B7-4001-B986-A010D408E879}"/>
-    <hyperlink ref="C21" r:id="rId2" xr:uid="{A67F4947-4B01-9F4B-9C34-7473909B7C41}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{A94F3EDE-BACC-8E44-BD8B-3C31B67A40AD}"/>
+    <hyperlink ref="F13" r:id="rId1" display="https://www.ebi.ac.uk/ena/browser/view/ERC000037" xr:uid="{8661B25F-28B7-4001-B986-A010D408E879}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{A67F4947-4B01-9F4B-9C34-7473909B7C41}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{A94F3EDE-BACC-8E44-BD8B-3C31B67A40AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -4376,23 +4413,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>228</v>
       </c>
@@ -4430,7 +4467,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4503,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -4502,7 +4539,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -4540,7 +4577,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4615,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -4614,7 +4651,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -4652,7 +4689,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -4690,7 +4727,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -4728,7 +4765,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -4766,7 +4803,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -4804,7 +4841,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -4842,7 +4879,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -4880,7 +4917,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -4918,7 +4955,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>276</v>
       </c>
@@ -4956,7 +4993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -4994,7 +5031,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -5032,7 +5069,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -5070,7 +5107,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -5108,7 +5145,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -5146,7 +5183,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>440</v>
       </c>
@@ -5182,7 +5219,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>443</v>
       </c>
@@ -5218,7 +5255,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>444</v>
       </c>
@@ -5254,7 +5291,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>445</v>
       </c>
@@ -5290,7 +5327,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>446</v>
       </c>
@@ -5326,7 +5363,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>447</v>
       </c>
@@ -5362,7 +5399,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>448</v>
       </c>
@@ -5398,7 +5435,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>449</v>
       </c>
@@ -5434,7 +5471,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>450</v>
       </c>
@@ -5470,7 +5507,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>451</v>
       </c>
@@ -5506,7 +5543,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>452</v>
       </c>
@@ -5542,7 +5579,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>453</v>
       </c>
@@ -5578,7 +5615,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>454</v>
       </c>
@@ -5614,7 +5651,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -5652,7 +5689,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>455</v>
       </c>
@@ -5690,7 +5727,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>456</v>
       </c>
@@ -5728,7 +5765,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>457</v>
       </c>
@@ -5766,7 +5803,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -5804,7 +5841,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -5842,7 +5879,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -5891,23 +5928,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>228</v>
       </c>
@@ -5945,7 +5982,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -5983,7 +6020,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -6021,7 +6058,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -6059,7 +6096,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -6097,7 +6134,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -6135,7 +6172,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -6173,7 +6210,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -6211,7 +6248,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -6249,7 +6286,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -6287,7 +6324,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -6325,7 +6362,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -6363,7 +6400,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -6401,7 +6438,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -6439,7 +6476,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>276</v>
       </c>
@@ -6477,7 +6514,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -6515,7 +6552,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -6553,7 +6590,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -6591,7 +6628,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -6629,7 +6666,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -6667,7 +6704,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>440</v>
       </c>
@@ -6705,7 +6742,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>443</v>
       </c>
@@ -6743,7 +6780,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>444</v>
       </c>
@@ -6781,7 +6818,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>445</v>
       </c>
@@ -6819,7 +6856,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>446</v>
       </c>
@@ -6857,7 +6894,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>447</v>
       </c>
@@ -6895,7 +6932,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>448</v>
       </c>
@@ -6933,7 +6970,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>449</v>
       </c>
@@ -6971,7 +7008,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>450</v>
       </c>
@@ -7009,7 +7046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>451</v>
       </c>
@@ -7047,7 +7084,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>452</v>
       </c>
@@ -7085,7 +7122,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>453</v>
       </c>
@@ -7123,7 +7160,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>454</v>
       </c>
@@ -7161,7 +7198,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -7199,7 +7236,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>455</v>
       </c>
@@ -7237,7 +7274,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>456</v>
       </c>
@@ -7275,7 +7312,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>457</v>
       </c>
@@ -7313,7 +7350,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -7351,7 +7388,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -7389,7 +7426,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -7438,23 +7475,23 @@
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>228</v>
       </c>
@@ -7492,7 +7529,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7528,7 +7565,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -7564,7 +7601,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -7600,7 +7637,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -7632,7 +7669,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -7668,7 +7705,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -7704,7 +7741,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -7740,7 +7777,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -7776,7 +7813,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -7812,7 +7849,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -7848,7 +7885,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -7884,7 +7921,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -7920,7 +7957,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -7956,7 +7993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>276</v>
       </c>
@@ -7992,7 +8029,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -8028,7 +8065,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -8064,7 +8101,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -8100,7 +8137,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -8136,7 +8173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -8172,7 +8209,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>440</v>
       </c>
@@ -8206,7 +8243,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>443</v>
       </c>
@@ -8240,7 +8277,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>444</v>
       </c>
@@ -8274,7 +8311,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>445</v>
       </c>
@@ -8308,7 +8345,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>446</v>
       </c>
@@ -8342,7 +8379,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>447</v>
       </c>
@@ -8376,7 +8413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>448</v>
       </c>
@@ -8410,7 +8447,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>449</v>
       </c>
@@ -8446,7 +8483,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>450</v>
       </c>
@@ -8482,7 +8519,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>451</v>
       </c>
@@ -8516,7 +8553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>452</v>
       </c>
@@ -8550,7 +8587,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>453</v>
       </c>
@@ -8584,7 +8621,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>454</v>
       </c>
@@ -8618,7 +8655,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -8654,7 +8691,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>455</v>
       </c>
@@ -8690,7 +8727,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>456</v>
       </c>
@@ -8726,7 +8763,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>457</v>
       </c>
@@ -8756,7 +8793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -8786,7 +8823,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -8816,7 +8853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -8859,23 +8896,23 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>228</v>
       </c>
@@ -8913,7 +8950,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8941,7 +8978,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -8969,7 +9006,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -8997,7 +9034,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -9025,7 +9062,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -9061,7 +9098,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -9089,7 +9126,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -9117,7 +9154,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -9145,7 +9182,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -9173,7 +9210,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -9201,7 +9238,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -9237,7 +9274,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -9265,7 +9302,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -9301,7 +9338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>276</v>
       </c>
@@ -9329,7 +9366,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -9357,7 +9394,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -9393,7 +9430,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -9421,7 +9458,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -9449,7 +9486,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -9477,7 +9514,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>440</v>
       </c>
@@ -9505,7 +9542,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>443</v>
       </c>
@@ -9533,7 +9570,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>444</v>
       </c>
@@ -9561,7 +9598,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>445</v>
       </c>
@@ -9589,7 +9626,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>446</v>
       </c>
@@ -9617,7 +9654,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>447</v>
       </c>
@@ -9645,7 +9682,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>448</v>
       </c>
@@ -9673,7 +9710,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>449</v>
       </c>
@@ -9701,7 +9738,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>450</v>
       </c>
@@ -9729,7 +9766,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>451</v>
       </c>
@@ -9757,7 +9794,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>452</v>
       </c>
@@ -9785,7 +9822,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>453</v>
       </c>
@@ -9813,7 +9850,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>454</v>
       </c>
@@ -9841,7 +9878,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -9869,7 +9906,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>455</v>
       </c>
@@ -9897,7 +9934,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>456</v>
       </c>
@@ -9925,7 +9962,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>457</v>
       </c>
@@ -9953,7 +9990,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -9981,7 +10018,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -10009,7 +10046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -10050,17 +10087,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>228</v>
       </c>
@@ -10098,7 +10135,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -10126,7 +10163,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -10154,7 +10191,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -10182,7 +10219,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -10210,7 +10247,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -10242,7 +10279,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -10274,7 +10311,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -10302,7 +10339,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -10330,7 +10367,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -10358,7 +10395,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -10386,7 +10423,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -10418,7 +10455,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -10446,7 +10483,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -10478,7 +10515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>276</v>
       </c>
@@ -10506,7 +10543,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -10534,7 +10571,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -10568,7 +10605,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -10596,7 +10633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -10624,7 +10661,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -10652,7 +10689,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>440</v>
       </c>
@@ -10680,7 +10717,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>443</v>
       </c>
@@ -10708,7 +10745,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>444</v>
       </c>
@@ -10736,7 +10773,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>445</v>
       </c>
@@ -10764,7 +10801,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>446</v>
       </c>
@@ -10792,7 +10829,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>447</v>
       </c>
@@ -10820,7 +10857,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>448</v>
       </c>
@@ -10848,7 +10885,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>449</v>
       </c>
@@ -10876,7 +10913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>450</v>
       </c>
@@ -10904,7 +10941,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>451</v>
       </c>
@@ -10932,7 +10969,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>452</v>
       </c>
@@ -10960,7 +10997,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>453</v>
       </c>
@@ -10988,7 +11025,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>454</v>
       </c>
@@ -11016,7 +11053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -11048,7 +11085,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>455</v>
       </c>
@@ -11080,7 +11117,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>456</v>
       </c>
@@ -11108,7 +11145,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>457</v>
       </c>
@@ -11136,7 +11173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -11164,7 +11201,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -11192,7 +11229,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -11220,7 +11257,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>100</v>
       </c>
@@ -11252,7 +11289,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>103</v>
       </c>
@@ -11284,7 +11321,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>410</v>
       </c>
@@ -11314,7 +11351,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>109</v>
       </c>
@@ -11346,7 +11383,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>112</v>
       </c>
@@ -11378,7 +11415,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>115</v>
       </c>
@@ -11410,7 +11447,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>421</v>
       </c>
@@ -11442,7 +11479,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>424</v>
       </c>
@@ -11474,7 +11511,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>427</v>
       </c>
@@ -11506,7 +11543,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>121</v>
       </c>

--- a/templates/1SPL01_plants.xlsx
+++ b/templates/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8876E1B-A019-4DEA-8016-D848DF40F1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F252BB-CCC9-4B16-A5D2-5487F1716167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9405" yWindow="1440" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-9408" yWindow="1440" windowWidth="19116" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
@@ -46,76 +46,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A6730C41-F5DE-4F01-A3FC-095AF4373E4D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=f12e98ee-a4e7-4ada-ba56-1e13cce1a44b</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{9E799887-59AD-4345-A004-B68DC73E5641}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{39B58500-2C8B-46EF-B806-2BE56674C4DC}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{6D46A25B-96E1-401B-9AA9-0106185FC555}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{EA625702-2A85-434F-8E7E-E80CAA6A6330}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{287E8347-2073-435C-862A-C1251741D440}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A0B2E1B2-0D9B-450D-95C4-C832706A4676}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A12" authorId="7" shapeId="0" xr:uid="{E65FC467-B059-42E1-B49B-386E8AEC23A9}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A16" authorId="8" shapeId="0" xr:uid="{DFE0E866-E592-4086-BD35-776A22FD6D07}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -2549,161 +2630,161 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="30.88671875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="30" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="28" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.140625" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="37.140625" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.109375" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="37.109375" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="24" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="43.85546875" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="43.88671875" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="43" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="43.85546875" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="43.88671875" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="36" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="39.88671875" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="11" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="14" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="39.42578125" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="39.42578125" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="39.42578125" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="39.42578125" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="108" max="108" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="43" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="114" max="114" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="117" max="117" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="30.28515625" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="133" max="133" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="136" max="136" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="139" max="139" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="142" max="142" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="114" max="114" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="117" max="117" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="30.33203125" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="134" max="134" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="136" max="136" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="139" max="139" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="140" max="140" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="142" max="142" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="143" max="143" width="24" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="34" hidden="1" customWidth="1"/>
     <col min="145" max="145" width="41" hidden="1" customWidth="1"/>
-    <col min="146" max="146" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="148" max="148" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="149" max="149" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="148" max="148" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="149" max="149" width="39.44140625" bestFit="1" customWidth="1"/>
     <col min="150" max="151" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3149,7 +3230,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>130</v>
       </c>
@@ -3363,7 +3444,7 @@
       <c r="EQ2" s="3"/>
       <c r="ER2" s="3"/>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:148" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>155</v>
       </c>
@@ -3556,7 +3637,7 @@
       <c r="EQ3" s="3"/>
       <c r="ER3" s="3"/>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>166</v>
       </c>
@@ -3725,7 +3806,7 @@
       <c r="EQ4" s="3"/>
       <c r="ER4" s="3"/>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>175</v>
       </c>
@@ -3858,7 +3939,7 @@
       <c r="EQ5" s="3"/>
       <c r="ER5" s="3"/>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:148" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>177</v>
       </c>
@@ -3982,7 +4063,7 @@
       <c r="EQ6" s="3"/>
       <c r="ER6" s="3"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>178</v>
       </c>
@@ -4118,19 +4199,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>179</v>
       </c>
@@ -4138,7 +4219,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>181</v>
       </c>
@@ -4146,7 +4227,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>183</v>
       </c>
@@ -4154,7 +4235,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -4162,7 +4243,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>186</v>
       </c>
@@ -4170,7 +4251,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>187</v>
       </c>
@@ -4178,13 +4259,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>190</v>
       </c>
@@ -4204,7 +4285,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>196</v>
       </c>
@@ -4224,7 +4305,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>197</v>
       </c>
@@ -4244,7 +4325,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>428</v>
       </c>
@@ -4256,13 +4337,13 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>199</v>
       </c>
@@ -4282,7 +4363,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>204</v>
       </c>
@@ -4292,7 +4373,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>205</v>
       </c>
@@ -4302,13 +4383,13 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>206</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>207</v>
       </c>
@@ -4321,12 +4402,12 @@
       <c r="D17" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>212</v>
       </c>
@@ -4339,12 +4420,12 @@
       <c r="D18" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>217</v>
       </c>
@@ -4354,7 +4435,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>218</v>
       </c>
@@ -4366,7 +4447,7 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>219</v>
       </c>
@@ -4376,7 +4457,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>220</v>
       </c>
@@ -4386,7 +4467,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>221</v>
       </c>
@@ -4396,7 +4477,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>222</v>
       </c>
@@ -4406,7 +4487,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>456</v>
       </c>
@@ -4418,7 +4499,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>457</v>
       </c>
@@ -4428,7 +4509,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>458</v>
       </c>
@@ -4438,7 +4519,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>459</v>
       </c>
@@ -4467,23 +4548,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -4521,7 +4602,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4638,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -4593,7 +4674,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -4631,7 +4712,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -4669,7 +4750,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -4705,7 +4786,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -4743,7 +4824,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -4781,7 +4862,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -4819,7 +4900,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -4857,7 +4938,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -4895,7 +4976,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -4933,7 +5014,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -4971,7 +5052,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -5009,7 +5090,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>271</v>
       </c>
@@ -5047,7 +5128,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -5085,7 +5166,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -5123,7 +5204,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -5161,7 +5242,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -5199,7 +5280,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -5237,7 +5318,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>434</v>
       </c>
@@ -5273,7 +5354,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>437</v>
       </c>
@@ -5309,7 +5390,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>438</v>
       </c>
@@ -5345,7 +5426,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>439</v>
       </c>
@@ -5381,7 +5462,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>440</v>
       </c>
@@ -5417,7 +5498,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>441</v>
       </c>
@@ -5453,7 +5534,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>442</v>
       </c>
@@ -5489,7 +5570,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>443</v>
       </c>
@@ -5525,7 +5606,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>444</v>
       </c>
@@ -5561,7 +5642,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>445</v>
       </c>
@@ -5597,7 +5678,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>446</v>
       </c>
@@ -5633,7 +5714,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>447</v>
       </c>
@@ -5669,7 +5750,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>448</v>
       </c>
@@ -5705,7 +5786,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -5743,7 +5824,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>449</v>
       </c>
@@ -5781,7 +5862,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>450</v>
       </c>
@@ -5819,7 +5900,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>451</v>
       </c>
@@ -5857,7 +5938,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -5895,7 +5976,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -5933,7 +6014,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -5982,23 +6063,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -6036,7 +6117,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -6074,7 +6155,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -6112,7 +6193,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -6150,7 +6231,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -6188,7 +6269,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -6226,7 +6307,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -6264,7 +6345,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -6302,7 +6383,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -6340,7 +6421,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -6378,7 +6459,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -6416,7 +6497,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -6454,7 +6535,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -6492,7 +6573,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -6530,7 +6611,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>271</v>
       </c>
@@ -6568,7 +6649,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -6606,7 +6687,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -6644,7 +6725,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -6682,7 +6763,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -6720,7 +6801,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -6758,7 +6839,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>434</v>
       </c>
@@ -6796,7 +6877,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>437</v>
       </c>
@@ -6834,7 +6915,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>438</v>
       </c>
@@ -6872,7 +6953,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>439</v>
       </c>
@@ -6910,7 +6991,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>440</v>
       </c>
@@ -6948,7 +7029,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>441</v>
       </c>
@@ -6986,7 +7067,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>442</v>
       </c>
@@ -7024,7 +7105,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>443</v>
       </c>
@@ -7062,7 +7143,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>444</v>
       </c>
@@ -7100,7 +7181,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>445</v>
       </c>
@@ -7138,7 +7219,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>446</v>
       </c>
@@ -7176,7 +7257,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>447</v>
       </c>
@@ -7214,7 +7295,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>448</v>
       </c>
@@ -7252,7 +7333,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -7290,7 +7371,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>449</v>
       </c>
@@ -7328,7 +7409,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>450</v>
       </c>
@@ -7366,7 +7447,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>451</v>
       </c>
@@ -7404,7 +7485,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -7442,7 +7523,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -7480,7 +7561,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -7529,23 +7610,23 @@
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -7583,7 +7664,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7619,7 +7700,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -7655,7 +7736,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -7691,7 +7772,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -7723,7 +7804,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -7759,7 +7840,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -7795,7 +7876,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -7831,7 +7912,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -7867,7 +7948,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -7903,7 +7984,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -7939,7 +8020,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -7975,7 +8056,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -8011,7 +8092,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -8047,7 +8128,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>271</v>
       </c>
@@ -8083,7 +8164,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -8119,7 +8200,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -8155,7 +8236,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -8191,7 +8272,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -8227,7 +8308,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -8263,7 +8344,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>434</v>
       </c>
@@ -8297,7 +8378,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>437</v>
       </c>
@@ -8331,7 +8412,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>438</v>
       </c>
@@ -8365,7 +8446,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>439</v>
       </c>
@@ -8399,7 +8480,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>440</v>
       </c>
@@ -8433,7 +8514,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>441</v>
       </c>
@@ -8467,7 +8548,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>442</v>
       </c>
@@ -8501,7 +8582,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>443</v>
       </c>
@@ -8537,7 +8618,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>444</v>
       </c>
@@ -8573,7 +8654,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>445</v>
       </c>
@@ -8607,7 +8688,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>446</v>
       </c>
@@ -8641,7 +8722,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>447</v>
       </c>
@@ -8675,7 +8756,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>448</v>
       </c>
@@ -8709,7 +8790,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -8745,7 +8826,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>449</v>
       </c>
@@ -8781,7 +8862,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>450</v>
       </c>
@@ -8817,7 +8898,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>451</v>
       </c>
@@ -8847,7 +8928,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -8877,7 +8958,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -8907,7 +8988,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -8946,27 +9027,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -9004,7 +9085,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -9032,7 +9113,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -9060,7 +9141,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -9088,7 +9169,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -9116,7 +9197,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -9152,7 +9233,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -9180,7 +9261,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -9208,7 +9289,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -9236,7 +9317,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -9264,7 +9345,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -9292,7 +9373,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -9328,7 +9409,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -9356,7 +9437,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -9392,7 +9473,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>271</v>
       </c>
@@ -9420,7 +9501,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -9448,7 +9529,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -9484,7 +9565,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -9512,7 +9593,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -9540,7 +9621,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -9568,7 +9649,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>434</v>
       </c>
@@ -9596,7 +9677,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>437</v>
       </c>
@@ -9624,7 +9705,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>438</v>
       </c>
@@ -9652,7 +9733,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>439</v>
       </c>
@@ -9680,7 +9761,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>440</v>
       </c>
@@ -9708,7 +9789,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>441</v>
       </c>
@@ -9736,7 +9817,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>442</v>
       </c>
@@ -9764,7 +9845,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>443</v>
       </c>
@@ -9792,7 +9873,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>444</v>
       </c>
@@ -9820,7 +9901,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>445</v>
       </c>
@@ -9848,7 +9929,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>446</v>
       </c>
@@ -9876,7 +9957,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>447</v>
       </c>
@@ -9904,7 +9985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>448</v>
       </c>
@@ -9932,7 +10013,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -9960,7 +10041,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>449</v>
       </c>
@@ -9988,7 +10069,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>450</v>
       </c>
@@ -10016,7 +10097,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>451</v>
       </c>
@@ -10044,7 +10125,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -10072,7 +10153,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -10100,7 +10181,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -10141,17 +10222,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -10189,7 +10270,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -10217,7 +10298,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -10245,7 +10326,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -10273,7 +10354,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -10301,7 +10382,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -10333,7 +10414,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -10365,7 +10446,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -10393,7 +10474,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -10421,7 +10502,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -10449,7 +10530,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -10477,7 +10558,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -10509,7 +10590,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -10537,7 +10618,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -10569,7 +10650,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>271</v>
       </c>
@@ -10597,7 +10678,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -10625,7 +10706,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -10659,7 +10740,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
@@ -10687,7 +10768,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -10715,7 +10796,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
@@ -10743,7 +10824,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>434</v>
       </c>
@@ -10771,7 +10852,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>437</v>
       </c>
@@ -10799,7 +10880,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>438</v>
       </c>
@@ -10827,7 +10908,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>439</v>
       </c>
@@ -10855,7 +10936,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>440</v>
       </c>
@@ -10883,7 +10964,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>441</v>
       </c>
@@ -10911,7 +10992,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>442</v>
       </c>
@@ -10939,7 +11020,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>443</v>
       </c>
@@ -10967,7 +11048,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>444</v>
       </c>
@@ -10995,7 +11076,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>445</v>
       </c>
@@ -11023,7 +11104,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>446</v>
       </c>
@@ -11051,7 +11132,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>447</v>
       </c>
@@ -11079,7 +11160,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>448</v>
       </c>
@@ -11107,7 +11188,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -11139,7 +11220,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>449</v>
       </c>
@@ -11171,7 +11252,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>450</v>
       </c>
@@ -11199,7 +11280,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>451</v>
       </c>
@@ -11227,7 +11308,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
@@ -11255,7 +11336,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
@@ -11283,7 +11364,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
@@ -11311,7 +11392,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>100</v>
       </c>
@@ -11343,7 +11424,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>103</v>
       </c>
@@ -11375,7 +11456,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>405</v>
       </c>
@@ -11405,7 +11486,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>109</v>
       </c>
@@ -11437,7 +11518,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>112</v>
       </c>
@@ -11469,7 +11550,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>115</v>
       </c>
@@ -11501,7 +11582,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>416</v>
       </c>
@@ -11533,7 +11614,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>419</v>
       </c>
@@ -11565,7 +11646,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>422</v>
       </c>
@@ -11597,7 +11678,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>121</v>
       </c>
